--- a/武侠属性.xlsx
+++ b/武侠属性.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="15870" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="15870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>最小伤害</t>
   </si>
@@ -162,9 +162,6 @@
     <t>3+3*根骨/100</t>
   </si>
   <si>
-    <t>6+6*根骨/100</t>
-  </si>
-  <si>
     <t>攻击成长</t>
   </si>
   <si>
@@ -189,21 +186,12 @@
     <t>30+外功*气血成长</t>
   </si>
   <si>
-    <t>60+60*根骨/100+外功*气血成长</t>
-  </si>
-  <si>
     <t>攻击</t>
   </si>
   <si>
     <t>10+招式*攻击成长</t>
   </si>
   <si>
-    <t>10*攻击成长+招式</t>
-  </si>
-  <si>
-    <t>定力+挡拆</t>
-  </si>
-  <si>
     <t>30+内功</t>
   </si>
   <si>
@@ -220,19 +208,29 @@
   </si>
   <si>
     <t>连击次数</t>
+  </si>
+  <si>
+    <t>穿透成长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,345 +244,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -592,251 +266,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -866,57 +298,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1178,8 +563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1193,7 +577,7 @@
     <col min="19" max="19" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:20">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:20">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1209,7 +593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:20">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1217,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1234,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1251,7 +635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1298,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="8:20">
+    <row r="7" spans="1:20">
       <c r="H7">
         <v>0</v>
       </c>
@@ -1326,7 +710,7 @@
       </c>
       <c r="O7">
         <f>L7/N7</f>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q7">
         <v>110</v>
@@ -1342,7 +726,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="8:20">
+    <row r="8" spans="1:20">
       <c r="H8">
         <v>1</v>
       </c>
@@ -1370,7 +754,7 @@
       </c>
       <c r="O8">
         <f t="shared" ref="O8:O23" si="4">L8/N8</f>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q8">
         <v>120</v>
@@ -1387,7 +771,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="8:20">
+    <row r="9" spans="1:20">
       <c r="H9">
         <v>2</v>
       </c>
@@ -1415,7 +799,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q9">
         <v>130</v>
@@ -1469,7 +853,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q10">
         <v>140</v>
@@ -1520,7 +904,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q11">
         <v>150</v>
@@ -1571,7 +955,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q12">
         <v>160</v>
@@ -1622,7 +1006,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q13">
         <v>170</v>
@@ -1673,7 +1057,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q14">
         <v>180</v>
@@ -1724,7 +1108,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q15">
         <v>190</v>
@@ -1741,7 +1125,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="16" spans="8:20">
+    <row r="16" spans="1:20">
       <c r="H16">
         <v>9</v>
       </c>
@@ -1769,7 +1153,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q16">
         <v>200</v>
@@ -1822,7 +1206,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q17">
         <v>210</v>
@@ -1873,7 +1257,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q18">
         <v>220</v>
@@ -1924,7 +1308,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q19">
         <v>230</v>
@@ -1975,7 +1359,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q20">
         <v>240</v>
@@ -2026,7 +1410,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q21">
         <v>250</v>
@@ -2077,7 +1461,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q22">
         <v>260</v>
@@ -2123,7 +1507,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="4"/>
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="Q23">
         <v>270</v>
@@ -2140,22 +1524,22 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:20">
       <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:20">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="4:9">
+    <row r="40" spans="1:9">
       <c r="D40" s="6" t="s">
         <v>36</v>
       </c>
@@ -2163,17 +1547,17 @@
         <v>99999999999</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="1:9">
       <c r="D41" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="1:9">
       <c r="D42" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="1:9">
       <c r="D43" s="6" t="s">
         <v>39</v>
       </c>
@@ -2209,14 +1593,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2229,7 +1612,7 @@
     <col min="14" max="14" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2237,12 +1620,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2250,7 +1633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="7:13">
+    <row r="6" spans="1:14">
       <c r="G6" t="s">
         <v>43</v>
       </c>
@@ -2264,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="7:13">
+    <row r="7" spans="1:14">
       <c r="G7" t="s">
         <v>3</v>
       </c>
@@ -2278,7 +1661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="7:13">
+    <row r="8" spans="1:14">
       <c r="G8" t="s">
         <v>7</v>
       </c>
@@ -2292,7 +1675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="7:13">
+    <row r="9" spans="1:14">
       <c r="G9" t="s">
         <v>9</v>
       </c>
@@ -2306,7 +1689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="7:14">
+    <row r="10" spans="1:14">
       <c r="G10" t="s">
         <v>44</v>
       </c>
@@ -2328,13 +1711,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="7:13">
+    <row r="12" spans="1:14">
       <c r="G12" t="s">
         <v>45</v>
       </c>
       <c r="H12">
         <f>M9*(1-I10)</f>
-        <v>27.6923076923077</v>
+        <v>27.692307692307701</v>
       </c>
       <c r="L12" t="s">
         <v>45</v>
@@ -2345,18 +1728,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B9:P45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B9:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2369,7 +1751,7 @@
     <col min="18" max="18" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:16">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2378,7 +1760,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" ht="14.25" spans="2:16">
+    <row r="10" spans="2:16" ht="14.25">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -2401,7 +1783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:16">
+    <row r="11" spans="2:16" ht="14.25">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -2424,7 +1806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:16">
+    <row r="12" spans="2:16" ht="14.25">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>44</v>
@@ -2447,177 +1829,175 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="2:16">
+    <row r="13" spans="2:16" ht="14.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="H13" s="2">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" ht="14.25" spans="2:16">
+      <c r="P13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="14.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="3">
-        <f>3*H10/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="H14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="3">
-        <f>3*P10/100</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="2:16">
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" ht="14.25">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3">
-        <f>1*H11/100</f>
-        <v>0.3</v>
+        <f>6*H10/100</f>
+        <v>1.8</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="2"/>
       <c r="P15" s="3">
-        <f>1*P11/100</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="2:16">
+        <f>6*P10/100</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="14.25">
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3">
-        <f>10*H12/100</f>
-        <v>3</v>
+        <f>1*H11/100</f>
+        <v>0.3</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="2"/>
       <c r="P16" s="3">
+        <f>1*P11/100</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="14.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3">
+        <f>10*H12/100</f>
+        <v>3</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3">
         <f>10*P12/100</f>
         <v>3</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="2:16">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="5"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" ht="14.25" spans="2:16">
+    <row r="18" spans="2:16" ht="14.25">
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>80</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18"/>
+      <c r="H18" s="3">
+        <f>10*H13/100</f>
+        <v>3</v>
+      </c>
       <c r="K18" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="3"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="2:16">
+      <c r="P18" s="3">
+        <f>10*P13/100</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="14.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="H19" s="3"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="3"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="2:16">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="2:16" ht="14.25">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
@@ -2626,10 +2006,8 @@
       <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20"/>
-      <c r="J20"/>
       <c r="K20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="1"/>
@@ -2639,10 +2017,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="2:16">
+    <row r="21" spans="2:16" ht="14.25">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
@@ -2652,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="1"/>
@@ -2662,282 +2040,303 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="2:16">
+    <row r="22" spans="2:16" ht="14.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="5"/>
-      <c r="K22" s="2"/>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="M22" s="1"/>
       <c r="N22" s="3"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" spans="2:16">
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="14.25">
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2">
-        <f>30+H18*H14</f>
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="M23" s="1"/>
       <c r="N23" s="3"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2">
-        <f>30+P18*P14</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="2:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="14.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2">
-        <f>10+H19*H15</f>
-        <v>16</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="H24" s="5"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="3"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2">
-        <f>10+P19*P15</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16">
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="2:16" ht="14.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1">
-        <f>H20*H16</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1">
-        <f>P20*P16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16">
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <f>60+H20*H15</f>
+        <v>60</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2">
+        <f>60+P20*P15</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="14.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1">
-        <f>90+H21*9</f>
-        <v>90</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1">
-        <f>90+P21*9</f>
-        <v>90</v>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <f>10+H21*H16</f>
+        <v>10</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2">
+        <f>10+P21*P16</f>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="H27" s="1">
+        <f>60+H23*H16*6</f>
+        <v>60</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" ht="14.25" spans="2:16">
+      <c r="P27" s="1">
+        <f>60+P23*P16*6</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="14.25">
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2">
-        <f>1-(100/(100+H25))</f>
+        <f>1-(100/(100+H22*H17))</f>
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2">
-        <f>1-(100/(100+P25))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <f>1-(100/(100+P22*P17))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="14.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="H29" s="2">
+        <f>1-(100/(100+H23*H18))</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="2">
+        <f>1-(100/(100+P23*P18))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" ht="14.25" spans="2:12">
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31" s="1"/>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="2">
-        <f>H24</f>
-        <v>16</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="K31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L31" s="2">
-        <f>P24</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" spans="3:12">
+    </row>
+    <row r="32" spans="2:16" ht="14.25">
+      <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2">
+        <f>H26</f>
+        <v>10</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="K32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" s="2">
+        <f>P26</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" ht="14.25">
+      <c r="C33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="2">
-        <f>L31*(1-H28)</f>
-        <v>13</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="D33" s="2">
+        <f>L32*(1-H28+P29)</f>
+        <v>10</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L32" s="2">
-        <f>D31*(1-P28)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="3:12">
-      <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="2">
-        <f>H23/D32</f>
-        <v>7.84615384615385</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="L33" s="2">
-        <f>P23/L32</f>
-        <v>6.9375</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12">
-      <c r="C35" t="s">
+        <f>D32*(1-P28+H29)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" ht="14.25">
+      <c r="C34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="2">
+        <f>H25/D33</f>
+        <v>6</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" s="2">
+        <f>P25/L33</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="C36" t="s">
         <v>67</v>
       </c>
-      <c r="D35">
-        <f>H26/H24</f>
-        <v>5.625</v>
-      </c>
-      <c r="K35" t="s">
-        <v>67</v>
-      </c>
-      <c r="L35">
-        <f>P26/P24</f>
-        <v>6.92307692307692</v>
-      </c>
-    </row>
-    <row r="42" spans="15:15">
-      <c r="O42">
+      <c r="D36">
+        <f>H27/H26</f>
+        <v>6</v>
+      </c>
+      <c r="K36" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36">
+        <f>P27/P26</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15">
+      <c r="O43">
         <f>1/100</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="12:12">
-      <c r="L45">
+    <row r="46" spans="3:15">
+      <c r="L46">
         <f>0*0.01*3+3</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/武侠属性.xlsx
+++ b/武侠属性.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="15870" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="15870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>最小伤害</t>
   </si>
@@ -156,30 +156,36 @@
     <t>遭受</t>
   </si>
   <si>
+    <t>灵巧</t>
+  </si>
+  <si>
     <t>气血成长</t>
   </si>
   <si>
-    <t>3+3*根骨/100</t>
+    <t>1.2+1.2*根骨/100</t>
   </si>
   <si>
     <t>攻击成长</t>
   </si>
   <si>
-    <t>1+1*臂力/100</t>
-  </si>
-  <si>
-    <t>防御成长</t>
-  </si>
-  <si>
-    <t>10+10*定力/100</t>
+    <t>0.2+0.2*臂力/100</t>
+  </si>
+  <si>
+    <t>内力成长</t>
+  </si>
+  <si>
+    <t>0.3+0.3*定力/100</t>
+  </si>
+  <si>
+    <t>身法成长</t>
+  </si>
+  <si>
+    <t>0.1+0.1*灵巧/100</t>
   </si>
   <si>
     <t>外功</t>
   </si>
   <si>
-    <t>挡拆</t>
-  </si>
-  <si>
     <t>内功</t>
   </si>
   <si>
@@ -195,12 +201,6 @@
     <t>30+内功</t>
   </si>
   <si>
-    <t>吸收</t>
-  </si>
-  <si>
-    <t>1-(100/(100+防御))</t>
-  </si>
-  <si>
     <t>输出</t>
   </si>
   <si>
@@ -208,29 +208,19 @@
   </si>
   <si>
     <t>连击次数</t>
-  </si>
-  <si>
-    <t>穿透成长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>连击次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,21 +234,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -266,31 +580,279 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -298,10 +860,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -563,7 +1172,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -577,112 +1187,112 @@
     <col min="19" max="19" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="8:20">
       <c r="H7">
         <v>0</v>
       </c>
@@ -710,7 +1320,7 @@
       </c>
       <c r="O7">
         <f>L7/N7</f>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q7">
         <v>110</v>
@@ -726,7 +1336,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="8:20">
       <c r="H8">
         <v>1</v>
       </c>
@@ -754,7 +1364,7 @@
       </c>
       <c r="O8">
         <f t="shared" ref="O8:O23" si="4">L8/N8</f>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q8">
         <v>120</v>
@@ -771,7 +1381,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="8:20">
       <c r="H9">
         <v>2</v>
       </c>
@@ -799,7 +1409,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q9">
         <v>130</v>
@@ -817,13 +1427,13 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H10">
@@ -853,7 +1463,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q10">
         <v>140</v>
@@ -874,7 +1484,7 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H11">
@@ -904,7 +1514,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q11">
         <v>150</v>
@@ -922,10 +1532,10 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H12">
@@ -955,7 +1565,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q12">
         <v>160</v>
@@ -976,7 +1586,7 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H13">
@@ -1006,7 +1616,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q13">
         <v>170</v>
@@ -1027,7 +1637,7 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H14">
@@ -1057,7 +1667,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q14">
         <v>180</v>
@@ -1075,10 +1685,10 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H15">
@@ -1108,7 +1718,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q15">
         <v>190</v>
@@ -1125,7 +1735,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="8:20">
       <c r="H16">
         <v>9</v>
       </c>
@@ -1153,7 +1763,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q16">
         <v>200</v>
@@ -1174,11 +1784,11 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="H17">
         <v>10</v>
       </c>
@@ -1206,7 +1816,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q17">
         <v>210</v>
@@ -1227,9 +1837,9 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="H18">
         <v>11</v>
       </c>
@@ -1257,7 +1867,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q18">
         <v>220</v>
@@ -1278,9 +1888,9 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="H19">
         <v>12</v>
       </c>
@@ -1308,7 +1918,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q19">
         <v>230</v>
@@ -1329,9 +1939,9 @@
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="H20">
         <v>13</v>
       </c>
@@ -1359,7 +1969,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q20">
         <v>240</v>
@@ -1377,10 +1987,10 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H21">
@@ -1410,7 +2020,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q21">
         <v>250</v>
@@ -1428,10 +2038,10 @@
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H22">
@@ -1461,7 +2071,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q22">
         <v>260</v>
@@ -1479,7 +2089,7 @@
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="6"/>
+      <c r="A23" s="8"/>
       <c r="H23">
         <v>16</v>
       </c>
@@ -1507,7 +2117,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="4"/>
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q23">
         <v>270</v>
@@ -1524,41 +2134,41 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="D40" s="6" t="s">
+    <row r="40" spans="4:9">
+      <c r="D40" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="9">
         <v>99999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="D41" s="6" t="s">
+    <row r="41" spans="4:4">
+      <c r="D41" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="D42" s="6" t="s">
+    <row r="42" spans="4:4">
+      <c r="D42" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="D43" s="6" t="s">
+    <row r="43" spans="4:4">
+      <c r="D43" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1593,13 +2203,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1612,7 +2223,7 @@
     <col min="14" max="14" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1620,12 +2231,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1633,7 +2244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="7:13">
       <c r="G6" t="s">
         <v>43</v>
       </c>
@@ -1647,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="7:13">
       <c r="G7" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +2272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="7:13">
       <c r="G8" t="s">
         <v>7</v>
       </c>
@@ -1675,7 +2286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="7:13">
       <c r="G9" t="s">
         <v>9</v>
       </c>
@@ -1689,7 +2300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="7:14">
       <c r="G10" t="s">
         <v>44</v>
       </c>
@@ -1711,13 +2322,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="7:13">
       <c r="G12" t="s">
         <v>45</v>
       </c>
       <c r="H12">
         <f>M9*(1-I10)</f>
-        <v>27.692307692307701</v>
+        <v>27.6923076923077</v>
       </c>
       <c r="L12" t="s">
         <v>45</v>
@@ -1728,17 +2339,18 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B9:P46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B5:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1751,592 +2363,644 @@
     <col min="18" max="18" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:16">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:16" ht="14.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+    <row r="5" spans="3:8">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:16">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="2:16">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="2:16">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="2:16">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="2:16">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" ht="14.25" spans="2:16">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5">
+        <f>1.2*H10/100+1.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5">
+        <f>1.2*P10/100+1.2</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="2:16">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5">
+        <f>0.2*H11/100+0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5">
+        <f>0.2*P11/100+0.2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="2:16">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5">
+        <f>0.3*H12/100+0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5">
+        <f>0.3*P12/100+0.3</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="2:16">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5">
+        <f>1*H13/100+1</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5">
+        <f>1*P13/100+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="2:16">
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" ht="14.25" spans="2:16">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>100</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="2:16">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="2:16">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="2:16">
+      <c r="B23" s="2"/>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="2:16">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" ht="14.25" spans="2:16">
+      <c r="B25" s="2"/>
+      <c r="C25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <f>120+H20*H15+H10*0.6</f>
+        <v>240</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4">
+        <f>120+P20*P15+P10*0.6</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="2:16">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <f>20+H21*H16+H11*0.1</f>
+        <v>20</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4">
+        <f>20+P21*P16+P11*0.1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f>30+H22*H17+H12*0.15</f>
         <v>30</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="3">
+      <c r="K27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3">
+        <f>30+P22*P17+P12*0.15</f>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="14.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3">
-        <v>30</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="14.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3">
-        <v>30</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="14.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>30</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="14.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="2:16" ht="14.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3">
-        <f>6*H10/100</f>
-        <v>1.8</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3">
-        <f>6*P10/100</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="14.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3">
-        <f>1*H11/100</f>
-        <v>0.3</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3">
-        <f>1*P11/100</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="14.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3">
-        <f>10*H12/100</f>
-        <v>3</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3">
-        <f>10*P12/100</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="14.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3">
-        <f>10*H13/100</f>
-        <v>3</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="3">
-        <f>10*P13/100</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="14.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="2:16" ht="14.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="14.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="14.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="14.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="14.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="5"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="2:16" ht="14.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2">
-        <f>60+H20*H15</f>
-        <v>60</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2">
-        <f>60+P20*P15</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="14.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2">
-        <f>10+H21*H16</f>
-        <v>10</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2">
-        <f>10+P21*P16</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1">
-        <f>60+H23*H16*6</f>
-        <v>60</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1">
-        <f>60+P23*P16*6</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="14.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2">
-        <f>1-(100/(100+H22*H17))</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2">
-        <f>1-(100/(100+P22*P17))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="14.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2">
-        <f>1-(100/(100+H23*H18))</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="2">
-        <f>1-(100/(100+P23*P18))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+    <row r="28" ht="14.25" spans="2:16">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3">
+        <f>100+H23*H18+H13*0.5</f>
+        <v>100</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="3">
+        <f>100+P23*P18+P13*0.5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" ht="14.25" spans="2:12">
+      <c r="B30" s="2"/>
+      <c r="C30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="4">
+        <f>H26</f>
+        <v>20</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="K30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="7">
+        <f>P26</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="3:12">
+      <c r="C31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="4">
+        <f>H25/L30</f>
+        <v>6</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:16" ht="14.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="2">
-        <f>H26</f>
-        <v>10</v>
-      </c>
+      <c r="K31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L31" s="7">
+        <f>P25/D30</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="K32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L32" s="2">
-        <f>P26</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" ht="14.25">
-      <c r="C33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="2">
-        <f>L32*(1-H28+P29)</f>
-        <v>10</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L33" s="2">
-        <f>D32*(1-P28+H29)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" ht="14.25">
-      <c r="C34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="2">
-        <f>H25/D33</f>
-        <v>6</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L34" s="2">
-        <f>P25/L33</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15">
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36">
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="1">
         <f>H27/H26</f>
-        <v>6</v>
-      </c>
-      <c r="K36" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="K33" t="s">
         <v>63</v>
       </c>
-      <c r="L36">
+      <c r="L33">
         <f>P27/P26</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15">
-      <c r="O43">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="15:15">
+      <c r="O40">
         <f>1/100</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="3:15">
-      <c r="L46">
+    <row r="43" spans="12:12">
+      <c r="L43">
         <f>0*0.01*3+3</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>